--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Packing\Desktop\credit-debit-note-portal\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6166828D-ACE3-4DE6-A34C-CE4B5BD0AB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193857C3-8494-47D7-BA43-04903A7B75C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
   <si>
     <t>Company_ID</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Draft</t>
   </si>
   <si>
-    <t>webuser</t>
-  </si>
-  <si>
     <t>2025-11-08T05:37:52.894Z</t>
   </si>
   <si>
@@ -158,61 +155,94 @@
     <t>Debit</t>
   </si>
   <si>
+    <t>Pintu</t>
+  </si>
+  <si>
     <t>2025-11-08T10:51:00.182Z</t>
   </si>
   <si>
+    <t>CRN003</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-10T13:18:42.139Z</t>
+  </si>
+  <si>
+    <t>CRN004</t>
+  </si>
+  <si>
+    <t>2025-11-10T13:28:48.323Z</t>
+  </si>
+  <si>
+    <t>Item_ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>HSN_Code</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Tax_Percentage</t>
+  </si>
+  <si>
+    <t>Tax_Amount</t>
+  </si>
+  <si>
+    <t>CRN001-ITM001</t>
+  </si>
+  <si>
+    <t>PANT</t>
+  </si>
+  <si>
+    <t>6055654</t>
+  </si>
+  <si>
+    <t>CRN001-ITM002</t>
+  </si>
+  <si>
+    <t>SHIRT</t>
+  </si>
+  <si>
+    <t>6055655</t>
+  </si>
+  <si>
+    <t>DBN002-ITM001</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>6248575</t>
+  </si>
+  <si>
+    <t>DBN003-ITM001</t>
+  </si>
+  <si>
     <t>DBN003</t>
   </si>
   <si>
-    <t>Item_ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>HSN_Code</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Tax_Percentage</t>
-  </si>
-  <si>
-    <t>Tax_Amount</t>
-  </si>
-  <si>
-    <t>CRN001-ITM001</t>
-  </si>
-  <si>
-    <t>PANT</t>
-  </si>
-  <si>
-    <t>6055654</t>
-  </si>
-  <si>
-    <t>CRN001-ITM002</t>
-  </si>
-  <si>
-    <t>SHIRT</t>
-  </si>
-  <si>
-    <t>6055655</t>
-  </si>
-  <si>
-    <t>DBN002-ITM001</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>6248575</t>
-  </si>
-  <si>
-    <t>DBN003-ITM001</t>
+    <t>CRN003-ITM001</t>
+  </si>
+  <si>
+    <t>REJECTION</t>
+  </si>
+  <si>
+    <t>65465464</t>
+  </si>
+  <si>
+    <t>CRN004-ITM001</t>
+  </si>
+  <si>
+    <t>5466878</t>
   </si>
   <si>
     <t>Debit_Prefix</t>
@@ -242,6 +272,9 @@
     <t>Active</t>
   </si>
   <si>
+    <t>Password</t>
+  </si>
+  <si>
     <t>USR001</t>
   </si>
   <si>
@@ -252,6 +285,18 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>$2b$10$odhYC2LnhN/KpMoUUa1ItOI9wXveL8imZEOQFhvG7/hGWJNa4HW5G</t>
+  </si>
+  <si>
+    <t>USR002</t>
+  </si>
+  <si>
+    <t>pintu2120@gmail.com</t>
+  </si>
+  <si>
+    <t>Approver</t>
   </si>
 </sst>
 </file>
@@ -605,11 +650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
@@ -620,7 +665,7 @@
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -669,7 +714,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:G2 A1:C1 E1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -678,11 +723,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -711,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -743,22 +794,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:I2 A1 E1:I1 C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -796,7 +847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -825,21 +876,21 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -863,72 +914,148 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>42</v>
       </c>
       <c r="L3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>2124</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>885</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -946,18 +1073,18 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>13</v>
@@ -975,18 +1102,18 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1004,18 +1131,18 @@
         <v>460.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1031,12 +1158,70 @@
       </c>
       <c r="I5">
         <v>460.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>324</v>
+      </c>
+      <c r="I6">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>135</v>
+      </c>
+      <c r="I7">
+        <v>885</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1047,23 +1232,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1076,50 +1261,79 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>